--- a/Data/GFxSPF_ASO/MotorBehaviordata_GFSPF_Livia_111323.xlsx
+++ b/Data/GFxSPF_ASO/MotorBehaviordata_GFSPF_Livia_111323.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Livia\Documents\Data Mito\data\raw\GF x SPF ASO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiaoguienko/git/LHMorais2024/Data/GFxSPF_ASO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A3C8EE-F2D7-4CD9-ACD6-DA9FC69D41D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA208DF-445A-C445-BA6B-2F9A07FDB196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{14CC993E-0CDB-4C1F-BA41-A215F3DE6160}"/>
+    <workbookView xWindow="1960" yWindow="1960" windowWidth="21600" windowHeight="11240" activeTab="1" xr2:uid="{14CC993E-0CDB-4C1F-BA41-A215F3DE6160}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="43">
   <si>
     <t xml:space="preserve">Group </t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>cohort3</t>
-  </si>
-  <si>
-    <t>ASP-SPF</t>
   </si>
   <si>
     <t>Pole_T1</t>
@@ -234,9 +231,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,7 +271,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -380,7 +377,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,7 +519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,75 +533,75 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -616,22 +613,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6AB8CE-CDE7-4CC0-B7A8-69D07539B035}">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="89" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -639,31 +636,31 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>3072020</v>
       </c>
@@ -701,7 +698,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>3072020</v>
       </c>
@@ -739,7 +736,7 @@
         <v>46.006666666666668</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3072020</v>
       </c>
@@ -777,7 +774,7 @@
         <v>45.303333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3072020</v>
       </c>
@@ -815,7 +812,7 @@
         <v>26.283333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3072020</v>
       </c>
@@ -853,7 +850,7 @@
         <v>42.176666666666669</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3072020</v>
       </c>
@@ -891,7 +888,7 @@
         <v>3.8833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>3072020</v>
       </c>
@@ -929,7 +926,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>3072020</v>
       </c>
@@ -967,7 +964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>3072020</v>
       </c>
@@ -1005,7 +1002,7 @@
         <v>10.513333333333334</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>3072020</v>
       </c>
@@ -1043,7 +1040,7 @@
         <v>6.0533333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3072020</v>
       </c>
@@ -1081,7 +1078,7 @@
         <v>4.6866666666666665</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>3072020</v>
       </c>
@@ -1119,7 +1116,7 @@
         <v>5.2433333333333332</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>3072020</v>
       </c>
@@ -1157,7 +1154,7 @@
         <v>5.63</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>3072020</v>
       </c>
@@ -1195,7 +1192,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>3072020</v>
       </c>
@@ -1233,7 +1230,7 @@
         <v>6.7433333333333332</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>3072020</v>
       </c>
@@ -1271,7 +1268,7 @@
         <v>16.709999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>3072020</v>
       </c>
@@ -1309,7 +1306,7 @@
         <v>2.813333333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>3072020</v>
       </c>
@@ -1347,7 +1344,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>3072020</v>
       </c>
@@ -1385,7 +1382,7 @@
         <v>28.943333333333332</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>3072020</v>
       </c>
@@ -1423,7 +1420,7 @@
         <v>24.733333333333334</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>3072020</v>
       </c>
@@ -1461,7 +1458,7 @@
         <v>4.8933333333333335</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>3072020</v>
       </c>
@@ -1499,7 +1496,7 @@
         <v>3.6033333333333335</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>3072020</v>
       </c>
@@ -1537,7 +1534,7 @@
         <v>4.3066666666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>3072020</v>
       </c>
@@ -1575,7 +1572,7 @@
         <v>39.156666666666666</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>3072020</v>
       </c>
@@ -1613,7 +1610,7 @@
         <v>5.496666666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3072020</v>
       </c>
@@ -1651,7 +1648,7 @@
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>3072020</v>
       </c>
@@ -1689,12 +1686,12 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1202020</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1727,12 +1724,12 @@
         <v>7.3933333333333335</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1202020</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -1765,12 +1762,12 @@
         <v>4.4966666666666661</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1202020</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -1803,12 +1800,12 @@
         <v>12.183333333333332</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1202020</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1841,12 +1838,12 @@
         <v>3.7533333333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>1202020</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -1879,12 +1876,12 @@
         <v>2.793333333333333</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1202020</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -1917,15 +1914,15 @@
         <v>7.7166666666666659</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1202020</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <v>1932</v>
@@ -1955,12 +1952,12 @@
         <v>48.879999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1202020</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -1993,12 +1990,12 @@
         <v>3.7133333333333334</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1202020</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -2031,12 +2028,12 @@
         <v>42.303333333333335</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1202020</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -2069,12 +2066,12 @@
         <v>3.0400000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1202020</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -2107,12 +2104,12 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1202020</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -2145,12 +2142,12 @@
         <v>44.506666666666661</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1202020</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2183,12 +2180,12 @@
         <v>2.7433333333333336</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>1202020</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2221,12 +2218,12 @@
         <v>54.71</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>1202020</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2259,12 +2256,12 @@
         <v>1.9466666666666665</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>1112019</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -2297,12 +2294,12 @@
         <v>13.376666666666665</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1112019</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -2335,12 +2332,12 @@
         <v>29.64</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1112019</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -2373,12 +2370,12 @@
         <v>4.496666666666667</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1112019</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -2411,12 +2408,12 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1112019</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -2431,7 +2428,7 @@
         <v>7.97</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H48">
         <v>13.469999999999999</v>
@@ -2449,12 +2446,12 @@
         <v>6.3833333333333329</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1112019</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -2487,12 +2484,12 @@
         <v>2.6233333333333335</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1112019</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -2525,12 +2522,12 @@
         <v>9.336666666666666</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>1112019</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -2557,18 +2554,18 @@
         <v>3.16</v>
       </c>
       <c r="K51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L51">
         <v>3.86</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>1112019</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -2601,12 +2598,12 @@
         <v>36.343333333333334</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>1112019</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -2639,12 +2636,12 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>1112019</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -2677,12 +2674,12 @@
         <v>3.3033333333333332</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>1112019</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -2715,12 +2712,12 @@
         <v>12.930000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>1112019</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -2753,12 +2750,12 @@
         <v>7.873333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>1112019</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -2791,12 +2788,12 @@
         <v>9.6533333333333342</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>1112019</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
@@ -2829,12 +2826,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>1112019</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
         <v>3</v>
@@ -2867,12 +2864,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>1112019</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -2905,12 +2902,12 @@
         <v>8.7833333333333332</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>1112019</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -2943,12 +2940,12 @@
         <v>3.2166666666666668</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>1112019</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -2981,12 +2978,12 @@
         <v>15.61</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>1112019</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -3019,12 +3016,12 @@
         <v>3.4866666666666664</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>1112019</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
@@ -3057,12 +3054,12 @@
         <v>6.2733333333333334</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>1112019</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
@@ -3071,16 +3068,16 @@
         <v>3181</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I65">
         <v>3.44</v>
@@ -3095,12 +3092,12 @@
         <v>3.2899999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>1112019</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -3133,12 +3130,12 @@
         <v>7.2966666666666669</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>1112019</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -3162,21 +3159,21 @@
         <v>4.13</v>
       </c>
       <c r="J67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L67">
         <v>4.13</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>1112019</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3209,12 +3206,12 @@
         <v>5.6766666666666667</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>1112019</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3247,12 +3244,12 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>1112019</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3285,12 +3282,12 @@
         <v>5.0333333333333341</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>1112019</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3323,12 +3320,12 @@
         <v>17.176666666666666</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>1112019</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3361,12 +3358,12 @@
         <v>4.0333333333333341</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>1112019</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3414,15 +3411,15 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -3430,39 +3427,39 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43850</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -3500,12 +3497,12 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43850</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -3543,12 +3540,12 @@
         <v>2.5649999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43850</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -3586,12 +3583,12 @@
         <v>8.14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43850</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -3629,12 +3626,12 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43850</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -3672,12 +3669,12 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43850</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -3715,12 +3712,12 @@
         <v>1.6400000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43850</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -3758,12 +3755,12 @@
         <v>2.2350000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43850</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -3801,12 +3798,12 @@
         <v>1.7350000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43850</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3844,12 +3841,12 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43850</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -3887,12 +3884,12 @@
         <v>4.8949999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43850</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -3930,12 +3927,12 @@
         <v>1.905</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43850</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -3973,12 +3970,12 @@
         <v>3.1349999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43850</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -4016,12 +4013,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43850</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -4059,12 +4056,12 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43850</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -4102,12 +4099,12 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43476</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -4146,12 +4143,12 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43476</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -4190,12 +4187,12 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43476</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -4234,12 +4231,12 @@
         <v>4.4349999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43476</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -4278,12 +4275,12 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43476</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -4322,12 +4319,12 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43476</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -4366,12 +4363,12 @@
         <v>17.105</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43476</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -4410,12 +4407,12 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43476</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -4454,12 +4451,12 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43476</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -4498,12 +4495,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43476</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
@@ -4542,12 +4539,12 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43476</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -4566,13 +4563,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K27">
         <v>1.1599999999999999</v>
@@ -4585,12 +4582,12 @@
         <v>2.7650000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43476</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -4609,13 +4606,13 @@
         <v>1.5</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K28">
         <v>1.6</v>
@@ -4628,12 +4625,12 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43476</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -4672,12 +4669,12 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43476</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -4716,12 +4713,12 @@
         <v>4.1899999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43476</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -4760,12 +4757,12 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43476</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -4804,12 +4801,12 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43476</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -4848,12 +4845,12 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43476</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -4892,12 +4889,12 @@
         <v>3.625</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43476</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -4936,12 +4933,12 @@
         <v>8.3450000000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43476</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -4980,12 +4977,12 @@
         <v>0.71500000000000008</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43476</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -5024,12 +5021,12 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43476</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -5068,12 +5065,12 @@
         <v>1.095</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43476</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -5112,12 +5109,12 @@
         <v>4.0449999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43476</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -5156,12 +5153,12 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43476</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -5200,12 +5197,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43476</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -5244,12 +5241,12 @@
         <v>2.605</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43476</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -5288,12 +5285,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43476</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -5332,12 +5329,12 @@
         <v>10.905000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43476</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -5376,12 +5373,12 @@
         <v>1.4849999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43476</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
